--- a/Code/Results/Cases/Case_5_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_194/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.91490831198958</v>
+        <v>14.09990611807505</v>
       </c>
       <c r="C2">
-        <v>7.545109923437174</v>
+        <v>9.284315311862674</v>
       </c>
       <c r="D2">
-        <v>4.817508608328577</v>
+        <v>7.617767664669738</v>
       </c>
       <c r="E2">
-        <v>7.97622116311407</v>
+        <v>13.40717858641352</v>
       </c>
       <c r="F2">
-        <v>27.55616042640743</v>
+        <v>41.27186205150613</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.44414978202183</v>
+        <v>10.75331571494002</v>
       </c>
       <c r="K2">
-        <v>10.39236836798193</v>
+        <v>10.32231581683874</v>
       </c>
       <c r="L2">
-        <v>6.177705931994542</v>
+        <v>10.64535173952673</v>
       </c>
       <c r="M2">
-        <v>9.724795262755451</v>
+        <v>15.40973373311128</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.95938645654784</v>
+        <v>32.05218628941993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14858397635169</v>
+        <v>13.93806356262053</v>
       </c>
       <c r="C3">
-        <v>7.517766199880641</v>
+        <v>9.274518568658713</v>
       </c>
       <c r="D3">
-        <v>4.682944873003302</v>
+        <v>7.609107581246826</v>
       </c>
       <c r="E3">
-        <v>7.990396661712381</v>
+        <v>13.43124580468593</v>
       </c>
       <c r="F3">
-        <v>27.51358825111745</v>
+        <v>41.36873766526173</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.495408469663263</v>
+        <v>10.77206884555236</v>
       </c>
       <c r="K3">
-        <v>9.79200498149252</v>
+        <v>10.19932314820356</v>
       </c>
       <c r="L3">
-        <v>6.116901434153298</v>
+        <v>10.65313307650601</v>
       </c>
       <c r="M3">
-        <v>9.447280172653933</v>
+        <v>15.39178170252956</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.04005144256018</v>
+        <v>32.14194491663528</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.65655149655432</v>
+        <v>13.84026468549589</v>
       </c>
       <c r="C4">
-        <v>7.501415791604766</v>
+        <v>9.26859390843503</v>
       </c>
       <c r="D4">
-        <v>4.599954652562658</v>
+        <v>7.604719147379139</v>
       </c>
       <c r="E4">
-        <v>8.001780789045679</v>
+        <v>13.44733193144057</v>
       </c>
       <c r="F4">
-        <v>27.50539329672311</v>
+        <v>41.43546384143671</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.52795997985338</v>
+        <v>10.7842109304918</v>
       </c>
       <c r="K4">
-        <v>9.404001977575421</v>
+        <v>10.12468246242014</v>
       </c>
       <c r="L4">
-        <v>6.081205809567352</v>
+        <v>10.65895800180026</v>
       </c>
       <c r="M4">
-        <v>9.276066023477679</v>
+        <v>15.38266654807219</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.10243456137483</v>
+        <v>32.20221243681266</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45077954746522</v>
+        <v>13.80084981782984</v>
       </c>
       <c r="C5">
-        <v>7.494861851022557</v>
+        <v>9.266202898748876</v>
       </c>
       <c r="D5">
-        <v>4.5660901799772</v>
+        <v>7.603166032682991</v>
       </c>
       <c r="E5">
-        <v>8.00708392041394</v>
+        <v>13.45421679950673</v>
       </c>
       <c r="F5">
-        <v>27.50643843882578</v>
+        <v>41.4644754606571</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.541499844161175</v>
+        <v>10.78931718096721</v>
       </c>
       <c r="K5">
-        <v>9.241054310085024</v>
+        <v>10.09451901819092</v>
       </c>
       <c r="L5">
-        <v>6.067078531192891</v>
+        <v>10.66159567621972</v>
       </c>
       <c r="M5">
-        <v>9.206185084840955</v>
+        <v>15.3794350171856</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.13098190515021</v>
+        <v>32.22806769325161</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.4162981882495</v>
+        <v>13.79433277544079</v>
       </c>
       <c r="C6">
-        <v>7.49378011968939</v>
+        <v>9.26580729925103</v>
       </c>
       <c r="D6">
-        <v>4.560465699716906</v>
+        <v>7.602922390663178</v>
       </c>
       <c r="E6">
-        <v>8.008004315495155</v>
+        <v>13.45537995194569</v>
       </c>
       <c r="F6">
-        <v>27.5068730259312</v>
+        <v>41.46940270549529</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.543764834578244</v>
+        <v>10.79017464098473</v>
       </c>
       <c r="K6">
-        <v>9.213706486700215</v>
+        <v>10.08952664268695</v>
       </c>
       <c r="L6">
-        <v>6.064758202535786</v>
+        <v>10.66204962179672</v>
       </c>
       <c r="M6">
-        <v>9.194577688703292</v>
+        <v>15.37892768666677</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.13590788816871</v>
+        <v>32.23243918072374</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65379748538485</v>
+        <v>13.83973128864622</v>
       </c>
       <c r="C7">
-        <v>7.50132696328042</v>
+        <v>9.268561567210815</v>
       </c>
       <c r="D7">
-        <v>4.599498063718919</v>
+        <v>7.604697247102473</v>
       </c>
       <c r="E7">
-        <v>8.001849633500676</v>
+        <v>13.44742344775383</v>
       </c>
       <c r="F7">
-        <v>27.50538980900659</v>
+        <v>41.43584773457055</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.528141465512026</v>
+        <v>10.7842791538281</v>
       </c>
       <c r="K7">
-        <v>9.401823915876465</v>
+        <v>10.12427459946065</v>
       </c>
       <c r="L7">
-        <v>6.081013579026894</v>
+        <v>10.65899250474651</v>
       </c>
       <c r="M7">
-        <v>9.275123898322459</v>
+        <v>15.3826210067742</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.10280704386115</v>
+        <v>32.20255588423217</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.65521862853502</v>
+        <v>14.04380254746244</v>
       </c>
       <c r="C8">
-        <v>7.535589885880883</v>
+        <v>9.280918929961038</v>
       </c>
       <c r="D8">
-        <v>4.771214803784436</v>
+        <v>7.614589884316723</v>
       </c>
       <c r="E8">
-        <v>7.980546542381717</v>
+        <v>13.4152056583957</v>
       </c>
       <c r="F8">
-        <v>27.53768116020258</v>
+        <v>41.30376042301999</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.461602188526464</v>
+        <v>10.75965180429111</v>
       </c>
       <c r="K8">
-        <v>10.18940418666192</v>
+        <v>10.27974553617621</v>
       </c>
       <c r="L8">
-        <v>6.156404800939622</v>
+        <v>10.64781780792299</v>
       </c>
       <c r="M8">
-        <v>9.629333926312345</v>
+        <v>15.40315003391666</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.9844668209342</v>
+        <v>32.08206471924878</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.44371119056727</v>
+        <v>14.45453372779271</v>
       </c>
       <c r="C9">
-        <v>7.606332800977775</v>
+        <v>9.305846646431165</v>
       </c>
       <c r="D9">
-        <v>5.103104244394368</v>
+        <v>7.641284395395016</v>
       </c>
       <c r="E9">
-        <v>7.960491935560492</v>
+        <v>13.36238698546835</v>
       </c>
       <c r="F9">
-        <v>27.74895903302808</v>
+        <v>41.10227605411371</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.339503220679912</v>
+        <v>10.71631714592662</v>
       </c>
       <c r="K9">
-        <v>11.57904103055591</v>
+        <v>10.59013934373009</v>
       </c>
       <c r="L9">
-        <v>6.316919952573118</v>
+        <v>10.63418378008824</v>
       </c>
       <c r="M9">
-        <v>10.31352565632606</v>
+        <v>15.45838868697604</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.85930594901941</v>
+        <v>31.88671340466225</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67426714950541</v>
+        <v>14.7601207038718</v>
       </c>
       <c r="C10">
-        <v>7.660592858375402</v>
+        <v>9.324554116184569</v>
       </c>
       <c r="D10">
-        <v>5.341629706795767</v>
+        <v>7.665237897009892</v>
       </c>
       <c r="E10">
-        <v>7.959633053985511</v>
+        <v>13.32986429234031</v>
       </c>
       <c r="F10">
-        <v>28.00179520685031</v>
+        <v>40.98939564755615</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.254657804055467</v>
+        <v>10.68747441878215</v>
       </c>
       <c r="K10">
-        <v>12.50500903904418</v>
+        <v>10.819611240165</v>
       </c>
       <c r="L10">
-        <v>6.442115453898886</v>
+        <v>10.62917447272091</v>
       </c>
       <c r="M10">
-        <v>10.80509575874028</v>
+        <v>15.50788840347539</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.83944781558603</v>
+        <v>31.76817571784604</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.23915118818569</v>
+        <v>14.89941877386215</v>
       </c>
       <c r="C11">
-        <v>7.685804039779105</v>
+        <v>9.333143451776468</v>
       </c>
       <c r="D11">
-        <v>5.448557326858217</v>
+        <v>7.677052779328567</v>
       </c>
       <c r="E11">
-        <v>7.962394503696138</v>
+        <v>13.31642617573389</v>
       </c>
       <c r="F11">
-        <v>28.13953075263329</v>
+        <v>40.94568764511427</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.217057769299815</v>
+        <v>10.67499751672328</v>
       </c>
       <c r="K11">
-        <v>12.90567461553143</v>
+        <v>10.92390706306734</v>
       </c>
       <c r="L11">
-        <v>6.500545197093674</v>
+        <v>10.62797391394274</v>
       </c>
       <c r="M11">
-        <v>11.02545398056415</v>
+        <v>15.53229230729204</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.84761270136245</v>
+        <v>31.71968200161817</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.44862572031032</v>
+        <v>14.95216286336753</v>
       </c>
       <c r="C12">
-        <v>7.695429551264772</v>
+        <v>9.336406806538349</v>
       </c>
       <c r="D12">
-        <v>5.488789945912732</v>
+        <v>7.681656525692901</v>
       </c>
       <c r="E12">
-        <v>7.963905101591361</v>
+        <v>13.31153201829369</v>
       </c>
       <c r="F12">
-        <v>28.19507372595717</v>
+        <v>40.93023602211937</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.202958115131784</v>
+        <v>10.67036496592551</v>
       </c>
       <c r="K12">
-        <v>13.05445126011004</v>
+        <v>10.96335462651937</v>
       </c>
       <c r="L12">
-        <v>6.522874691511631</v>
+        <v>10.6276735066459</v>
       </c>
       <c r="M12">
-        <v>11.10836782164599</v>
+        <v>15.54179996203038</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.85330820643077</v>
+        <v>31.70209996648972</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.40370803622447</v>
+        <v>14.9408044290532</v>
       </c>
       <c r="C13">
-        <v>7.69335298428901</v>
+        <v>9.335703516259059</v>
       </c>
       <c r="D13">
-        <v>5.480137093638205</v>
+        <v>7.680659296254419</v>
       </c>
       <c r="E13">
-        <v>7.963558903466346</v>
+        <v>13.31257741756669</v>
       </c>
       <c r="F13">
-        <v>28.18295912936336</v>
+        <v>40.93351488894659</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.205988636887811</v>
+        <v>10.67135857511306</v>
       </c>
       <c r="K13">
-        <v>13.02254038195585</v>
+        <v>10.95486150750088</v>
       </c>
       <c r="L13">
-        <v>6.518056730618953</v>
+        <v>10.6277313593523</v>
       </c>
       <c r="M13">
-        <v>11.09053537020427</v>
+        <v>15.53974054803966</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.85196367328802</v>
+        <v>31.70585180515881</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25647336439078</v>
+        <v>14.90375842401257</v>
       </c>
       <c r="C14">
-        <v>7.686594345078262</v>
+        <v>9.33341171792719</v>
       </c>
       <c r="D14">
-        <v>5.451872637920804</v>
+        <v>7.677428946600402</v>
       </c>
       <c r="E14">
-        <v>7.962509396910783</v>
+        <v>13.31601963403896</v>
       </c>
       <c r="F14">
-        <v>28.14403178870387</v>
+        <v>40.94439438871606</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.215895030543176</v>
+        <v>10.67461454878855</v>
       </c>
       <c r="K14">
-        <v>12.91797353792696</v>
+        <v>10.92715357042487</v>
       </c>
       <c r="L14">
-        <v>6.502378232509379</v>
+        <v>10.62794611334295</v>
       </c>
       <c r="M14">
-        <v>11.03228632430565</v>
+        <v>15.53306919653315</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.84802833606915</v>
+        <v>31.71821985112678</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16571188459893</v>
+        <v>14.88106466467547</v>
       </c>
       <c r="C15">
-        <v>7.682464801775923</v>
+        <v>9.332009307701318</v>
       </c>
       <c r="D15">
-        <v>5.434525298724663</v>
+        <v>7.675467084426518</v>
       </c>
       <c r="E15">
-        <v>7.961927435815603</v>
+        <v>13.31815341383847</v>
       </c>
       <c r="F15">
-        <v>28.12063202292007</v>
+        <v>40.9512016215491</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.221980899602056</v>
+        <v>10.67662091969818</v>
       </c>
       <c r="K15">
-        <v>12.85353997547216</v>
+        <v>10.91017454924665</v>
       </c>
       <c r="L15">
-        <v>6.492800924725599</v>
+        <v>10.62809771503527</v>
       </c>
       <c r="M15">
-        <v>10.99653622809842</v>
+        <v>15.52901735109185</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.84596081857116</v>
+        <v>31.72589742831169</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.63672723832942</v>
+        <v>14.75101902675297</v>
       </c>
       <c r="C16">
-        <v>7.658956093158044</v>
+        <v>9.323994323059424</v>
       </c>
       <c r="D16">
-        <v>5.334607187926355</v>
+        <v>7.664484047383854</v>
       </c>
       <c r="E16">
-        <v>7.959517004592538</v>
+        <v>13.33076975967149</v>
       </c>
       <c r="F16">
-        <v>27.99326124099946</v>
+        <v>40.99240591250416</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.257134715840437</v>
+        <v>10.68830273459674</v>
       </c>
       <c r="K16">
-        <v>12.47841156856414</v>
+        <v>10.81279050682971</v>
       </c>
       <c r="L16">
-        <v>6.43832588856224</v>
+        <v>10.62927455842428</v>
       </c>
       <c r="M16">
-        <v>10.79062373659912</v>
+        <v>15.50633110047472</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.8392713943691</v>
+        <v>31.77145421659307</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.30547395843417</v>
+        <v>14.67128021428525</v>
       </c>
       <c r="C17">
-        <v>7.64467128898302</v>
+        <v>9.319097230759381</v>
       </c>
       <c r="D17">
-        <v>5.272882707263856</v>
+        <v>7.65797987677285</v>
       </c>
       <c r="E17">
-        <v>7.95885382640846</v>
+        <v>13.33885657781258</v>
       </c>
       <c r="F17">
-        <v>27.9210277140829</v>
+        <v>41.01964129121947</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.278952446382373</v>
+        <v>10.69563375890364</v>
       </c>
       <c r="K17">
-        <v>12.24302130373301</v>
+        <v>10.75300071237337</v>
       </c>
       <c r="L17">
-        <v>6.40527919054404</v>
+        <v>10.63027209027342</v>
       </c>
       <c r="M17">
-        <v>10.66342145271464</v>
+        <v>15.49289357644822</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.83966460243228</v>
+        <v>31.80079301923265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12692621473957</v>
+        <v>14.62544609525636</v>
       </c>
       <c r="C18">
-        <v>7.636504568813805</v>
+        <v>9.316288046841853</v>
       </c>
       <c r="D18">
-        <v>5.237233466618012</v>
+        <v>7.65432543308037</v>
       </c>
       <c r="E18">
-        <v>7.958768372697782</v>
+        <v>13.34363562433618</v>
       </c>
       <c r="F18">
-        <v>27.88161246380502</v>
+        <v>41.03602561859264</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.291595519051089</v>
+        <v>10.69991099106649</v>
       </c>
       <c r="K18">
-        <v>12.10569465868257</v>
+        <v>10.71860451304398</v>
       </c>
       <c r="L18">
-        <v>6.386411229175122</v>
+        <v>10.63094738110644</v>
       </c>
       <c r="M18">
-        <v>10.5899544996855</v>
+        <v>15.48534251140236</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.84150158827141</v>
+        <v>31.81817895069628</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.06607625068645</v>
+        <v>14.60993393993628</v>
       </c>
       <c r="C19">
-        <v>7.633747887218558</v>
+        <v>9.315338211687889</v>
       </c>
       <c r="D19">
-        <v>5.2251390273633</v>
+        <v>7.653103041728404</v>
       </c>
       <c r="E19">
-        <v>7.958789925366822</v>
+        <v>13.34527567943395</v>
       </c>
       <c r="F19">
-        <v>27.86862956811227</v>
+        <v>41.04169657647896</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.295892544780028</v>
+        <v>10.70136961221685</v>
       </c>
       <c r="K19">
-        <v>12.05886542999277</v>
+        <v>10.70695844252199</v>
       </c>
       <c r="L19">
-        <v>6.380047121194846</v>
+        <v>10.63119348662508</v>
       </c>
       <c r="M19">
-        <v>10.56502974057161</v>
+        <v>15.48281653831866</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.84239628727376</v>
+        <v>31.8241532755509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.33995387341232</v>
+        <v>14.67976582634845</v>
       </c>
       <c r="C20">
-        <v>7.64618678726718</v>
+        <v>9.319617763545553</v>
       </c>
       <c r="D20">
-        <v>5.2794688324922</v>
+        <v>7.658663312465393</v>
       </c>
       <c r="E20">
-        <v>7.958893705669293</v>
+        <v>13.33798250711656</v>
       </c>
       <c r="F20">
-        <v>27.92849561827139</v>
+        <v>41.01666759188191</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.276620206664907</v>
+        <v>10.69484708769966</v>
       </c>
       <c r="K20">
-        <v>12.2682793539917</v>
+        <v>10.75936637748417</v>
       </c>
       <c r="L20">
-        <v>6.408782683504982</v>
+        <v>10.63015539849046</v>
       </c>
       <c r="M20">
-        <v>10.67699424680843</v>
+        <v>15.49430565186449</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.83945509375376</v>
+        <v>31.797616958807</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.29983969879073</v>
+        <v>14.91464023381202</v>
       </c>
       <c r="C21">
-        <v>7.688577365700795</v>
+        <v>9.334084587687832</v>
       </c>
       <c r="D21">
-        <v>5.460181843758377</v>
+        <v>7.678374277602675</v>
       </c>
       <c r="E21">
-        <v>7.962804951541451</v>
+        <v>13.3150032952958</v>
       </c>
       <c r="F21">
-        <v>28.15537288237392</v>
+        <v>40.94116896692363</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.212981557292563</v>
+        <v>10.67365569176208</v>
       </c>
       <c r="K21">
-        <v>12.94876721878692</v>
+        <v>10.93529360397119</v>
       </c>
       <c r="L21">
-        <v>6.506977938086238</v>
+        <v>10.6278788562037</v>
       </c>
       <c r="M21">
-        <v>11.04941035142198</v>
+        <v>15.5350215428921</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.84911252455347</v>
+        <v>31.71456584171213</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.9013563049395</v>
+        <v>15.06809401538729</v>
       </c>
       <c r="C22">
-        <v>7.716741581571802</v>
+        <v>9.343601913521157</v>
       </c>
       <c r="D22">
-        <v>5.576769170706052</v>
+        <v>7.692011402587771</v>
       </c>
       <c r="E22">
-        <v>7.96807650934648</v>
+        <v>13.30111888647879</v>
       </c>
       <c r="F22">
-        <v>28.32343633761013</v>
+        <v>40.89823602388621</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.172195958015982</v>
+        <v>10.66034301097964</v>
       </c>
       <c r="K22">
-        <v>13.37633830014879</v>
+        <v>11.04998317785378</v>
       </c>
       <c r="L22">
-        <v>6.57233585395542</v>
+        <v>10.62728949857708</v>
       </c>
       <c r="M22">
-        <v>11.28968708671765</v>
+        <v>15.56318228160475</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.8706626493151</v>
+        <v>31.66484249653335</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.5826611079079</v>
+        <v>14.98621241412558</v>
       </c>
       <c r="C23">
-        <v>7.701666798754752</v>
+        <v>9.338516835961446</v>
       </c>
       <c r="D23">
-        <v>5.514692785003183</v>
+        <v>7.684664743372515</v>
       </c>
       <c r="E23">
-        <v>7.965010627593236</v>
+        <v>13.30842568243904</v>
       </c>
       <c r="F23">
-        <v>28.23188897116692</v>
+        <v>40.92056346205275</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.193891842207775</v>
+        <v>10.66739922257515</v>
       </c>
       <c r="K23">
-        <v>13.14970156182683</v>
+        <v>10.98880858575228</v>
       </c>
       <c r="L23">
-        <v>6.53734792423788</v>
+        <v>10.62752211930922</v>
       </c>
       <c r="M23">
-        <v>11.1617508200499</v>
+        <v>15.54801213560894</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.8577228148488</v>
+        <v>31.69096374999047</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32382524767171</v>
+        <v>14.67592945024588</v>
       </c>
       <c r="C24">
-        <v>7.64550148802015</v>
+        <v>9.319382411255281</v>
       </c>
       <c r="D24">
-        <v>5.276491750597116</v>
+        <v>7.65835406660028</v>
       </c>
       <c r="E24">
-        <v>7.958874755730634</v>
+        <v>13.33837727004677</v>
       </c>
       <c r="F24">
-        <v>27.92511280700634</v>
+        <v>41.01800973888079</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.27767430113498</v>
+        <v>10.69520254694824</v>
       </c>
       <c r="K24">
-        <v>12.25686641238885</v>
+        <v>10.7564885270102</v>
       </c>
       <c r="L24">
-        <v>6.407198345530827</v>
+        <v>10.63020783770178</v>
       </c>
       <c r="M24">
-        <v>10.67085903041922</v>
+        <v>15.49366670913717</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.83954480480707</v>
+        <v>31.79905124015719</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.97917895449293</v>
+        <v>14.3425600849049</v>
       </c>
       <c r="C25">
-        <v>7.586803041608005</v>
+        <v>9.299031775170262</v>
       </c>
       <c r="D25">
-        <v>5.014094631615486</v>
+        <v>7.633292361058304</v>
       </c>
       <c r="E25">
-        <v>7.963526968383093</v>
+        <v>13.37557005674143</v>
       </c>
       <c r="F25">
-        <v>27.67518501154834</v>
+        <v>41.15061463655178</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.371661967208199</v>
+        <v>10.72751229928257</v>
       </c>
       <c r="K25">
-        <v>11.21978048873116</v>
+        <v>10.50577972462741</v>
       </c>
       <c r="L25">
-        <v>6.272185895884499</v>
+        <v>10.63698974796046</v>
       </c>
       <c r="M25">
-        <v>10.13006714968595</v>
+        <v>15.44186281151328</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.8810161389881</v>
+        <v>31.93517540902369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_194/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.09990611807505</v>
+        <v>12.91490831198958</v>
       </c>
       <c r="C2">
-        <v>9.284315311862674</v>
+        <v>7.545109923437302</v>
       </c>
       <c r="D2">
-        <v>7.617767664669738</v>
+        <v>4.817508608328596</v>
       </c>
       <c r="E2">
-        <v>13.40717858641352</v>
+        <v>7.976221163114136</v>
       </c>
       <c r="F2">
-        <v>41.27186205150613</v>
+        <v>27.5561604264072</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.75331571494002</v>
+        <v>6.444149782021764</v>
       </c>
       <c r="K2">
-        <v>10.32231581683874</v>
+        <v>10.39236836798199</v>
       </c>
       <c r="L2">
-        <v>10.64535173952673</v>
+        <v>6.17770593199451</v>
       </c>
       <c r="M2">
-        <v>15.40973373311128</v>
+        <v>9.724795262755395</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>32.05218628941993</v>
+        <v>20.95938645654759</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.93806356262053</v>
+        <v>12.14858397635172</v>
       </c>
       <c r="C3">
-        <v>9.274518568658713</v>
+        <v>7.517766199880905</v>
       </c>
       <c r="D3">
-        <v>7.609107581246826</v>
+        <v>4.682944873003336</v>
       </c>
       <c r="E3">
-        <v>13.43124580468593</v>
+        <v>7.99039666171262</v>
       </c>
       <c r="F3">
-        <v>41.36873766526173</v>
+        <v>27.51358825111758</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.77206884555236</v>
+        <v>6.495408469663394</v>
       </c>
       <c r="K3">
-        <v>10.19932314820356</v>
+        <v>9.792004981492562</v>
       </c>
       <c r="L3">
-        <v>10.65313307650601</v>
+        <v>6.116901434153323</v>
       </c>
       <c r="M3">
-        <v>15.39178170252956</v>
+        <v>9.447280172653977</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.14194491663528</v>
+        <v>21.0400514425603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.84026468549589</v>
+        <v>11.65655149655432</v>
       </c>
       <c r="C4">
-        <v>9.26859390843503</v>
+        <v>7.501415791604778</v>
       </c>
       <c r="D4">
-        <v>7.604719147379139</v>
+        <v>4.599954652562577</v>
       </c>
       <c r="E4">
-        <v>13.44733193144057</v>
+        <v>8.001780789045613</v>
       </c>
       <c r="F4">
-        <v>41.43546384143671</v>
+        <v>27.50539329672299</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.7842109304918</v>
+        <v>6.527959979853412</v>
       </c>
       <c r="K4">
-        <v>10.12468246242014</v>
+        <v>9.404001977575408</v>
       </c>
       <c r="L4">
-        <v>10.65895800180026</v>
+        <v>6.08120580956729</v>
       </c>
       <c r="M4">
-        <v>15.38266654807219</v>
+        <v>9.276066023477657</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>32.20221243681266</v>
+        <v>21.10243456137479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.80084981782984</v>
+        <v>11.45077954746518</v>
       </c>
       <c r="C5">
-        <v>9.266202898748876</v>
+        <v>7.494861851022305</v>
       </c>
       <c r="D5">
-        <v>7.603166032682991</v>
+        <v>4.566090179977094</v>
       </c>
       <c r="E5">
-        <v>13.45421679950673</v>
+        <v>8.00708392041369</v>
       </c>
       <c r="F5">
-        <v>41.4644754606571</v>
+        <v>27.50643843882556</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.78931718096721</v>
+        <v>6.541499844161107</v>
       </c>
       <c r="K5">
-        <v>10.09451901819092</v>
+        <v>9.241054310085032</v>
       </c>
       <c r="L5">
-        <v>10.66159567621972</v>
+        <v>6.067078531192806</v>
       </c>
       <c r="M5">
-        <v>15.3794350171856</v>
+        <v>9.206185084840854</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>32.22806769325161</v>
+        <v>21.13098190515009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.79433277544079</v>
+        <v>11.4162981882495</v>
       </c>
       <c r="C6">
-        <v>9.26580729925103</v>
+        <v>7.49378011968926</v>
       </c>
       <c r="D6">
-        <v>7.602922390663178</v>
+        <v>4.560465699716943</v>
       </c>
       <c r="E6">
-        <v>13.45537995194569</v>
+        <v>8.008004315495274</v>
       </c>
       <c r="F6">
-        <v>41.46940270549529</v>
+        <v>27.5068730259311</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.79017464098473</v>
+        <v>6.543764834578278</v>
       </c>
       <c r="K6">
-        <v>10.08952664268695</v>
+        <v>9.213706486700177</v>
       </c>
       <c r="L6">
-        <v>10.66204962179672</v>
+        <v>6.064758202535928</v>
       </c>
       <c r="M6">
-        <v>15.37892768666677</v>
+        <v>9.194577688703355</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32.23243918072374</v>
+        <v>21.13590788816858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.83973128864622</v>
+        <v>11.65379748538484</v>
       </c>
       <c r="C7">
-        <v>9.268561567210815</v>
+        <v>7.501326963280154</v>
       </c>
       <c r="D7">
-        <v>7.604697247102473</v>
+        <v>4.599498063718921</v>
       </c>
       <c r="E7">
-        <v>13.44742344775383</v>
+        <v>8.001849633500672</v>
       </c>
       <c r="F7">
-        <v>41.43584773457055</v>
+        <v>27.50538980900642</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.7842791538281</v>
+        <v>6.528141465511992</v>
       </c>
       <c r="K7">
-        <v>10.12427459946065</v>
+        <v>9.40182391587647</v>
       </c>
       <c r="L7">
-        <v>10.65899250474651</v>
+        <v>6.081013579026927</v>
       </c>
       <c r="M7">
-        <v>15.3826210067742</v>
+        <v>9.275123898322441</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.20255588423217</v>
+        <v>21.10280704386104</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.04380254746244</v>
+        <v>12.65521862853503</v>
       </c>
       <c r="C8">
-        <v>9.280918929961038</v>
+        <v>7.535589885881014</v>
       </c>
       <c r="D8">
-        <v>7.614589884316723</v>
+        <v>4.771214803784271</v>
       </c>
       <c r="E8">
-        <v>13.4152056583957</v>
+        <v>7.980546542381593</v>
       </c>
       <c r="F8">
-        <v>41.30376042301999</v>
+        <v>27.53768116020221</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.75965180429111</v>
+        <v>6.461602188526435</v>
       </c>
       <c r="K8">
-        <v>10.27974553617621</v>
+        <v>10.18940418666196</v>
       </c>
       <c r="L8">
-        <v>10.64781780792299</v>
+        <v>6.156404800939461</v>
       </c>
       <c r="M8">
-        <v>15.40315003391666</v>
+        <v>9.629333926312258</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>32.08206471924878</v>
+        <v>20.98446682093396</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.45453372779271</v>
+        <v>14.44371119056728</v>
       </c>
       <c r="C9">
-        <v>9.305846646431165</v>
+        <v>7.606332800977766</v>
       </c>
       <c r="D9">
-        <v>7.641284395395016</v>
+        <v>5.103104244394394</v>
       </c>
       <c r="E9">
-        <v>13.36238698546835</v>
+        <v>7.960491935560555</v>
       </c>
       <c r="F9">
-        <v>41.10227605411371</v>
+        <v>27.74895903302827</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.71631714592662</v>
+        <v>6.339503220679976</v>
       </c>
       <c r="K9">
-        <v>10.59013934373009</v>
+        <v>11.57904103055589</v>
       </c>
       <c r="L9">
-        <v>10.63418378008824</v>
+        <v>6.316919952573172</v>
       </c>
       <c r="M9">
-        <v>15.45838868697604</v>
+        <v>10.31352565632608</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.88671340466225</v>
+        <v>20.85930594901951</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.7601207038718</v>
+        <v>15.67426714950539</v>
       </c>
       <c r="C10">
-        <v>9.324554116184569</v>
+        <v>7.66059285837539</v>
       </c>
       <c r="D10">
-        <v>7.665237897009892</v>
+        <v>5.341629706795687</v>
       </c>
       <c r="E10">
-        <v>13.32986429234031</v>
+        <v>7.959633053985524</v>
       </c>
       <c r="F10">
-        <v>40.98939564755615</v>
+        <v>28.0017952068503</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.68747441878215</v>
+        <v>6.254657804055537</v>
       </c>
       <c r="K10">
-        <v>10.819611240165</v>
+        <v>12.50500903904415</v>
       </c>
       <c r="L10">
-        <v>10.62917447272091</v>
+        <v>6.44211545389888</v>
       </c>
       <c r="M10">
-        <v>15.50788840347539</v>
+        <v>10.80509575874033</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>31.76817571784604</v>
+        <v>20.83944781558608</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.89941877386215</v>
+        <v>16.23915118818569</v>
       </c>
       <c r="C11">
-        <v>9.333143451776468</v>
+        <v>7.685804039779242</v>
       </c>
       <c r="D11">
-        <v>7.677052779328567</v>
+        <v>5.448557326858056</v>
       </c>
       <c r="E11">
-        <v>13.31642617573389</v>
+        <v>7.962394503696093</v>
       </c>
       <c r="F11">
-        <v>40.94568764511427</v>
+        <v>28.13953075263298</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.67499751672328</v>
+        <v>6.217057769299944</v>
       </c>
       <c r="K11">
-        <v>10.92390706306734</v>
+        <v>12.90567461553148</v>
       </c>
       <c r="L11">
-        <v>10.62797391394274</v>
+        <v>6.500545197093643</v>
       </c>
       <c r="M11">
-        <v>15.53229230729204</v>
+        <v>11.02545398056411</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31.71968200161817</v>
+        <v>20.84761270136233</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.95216286336753</v>
+        <v>16.44862572031031</v>
       </c>
       <c r="C12">
-        <v>9.336406806538349</v>
+        <v>7.695429551264773</v>
       </c>
       <c r="D12">
-        <v>7.681656525692901</v>
+        <v>5.488789945912836</v>
       </c>
       <c r="E12">
-        <v>13.31153201829369</v>
+        <v>7.96390510159142</v>
       </c>
       <c r="F12">
-        <v>40.93023602211937</v>
+        <v>28.19507372595715</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.67036496592551</v>
+        <v>6.202958115131752</v>
       </c>
       <c r="K12">
-        <v>10.96335462651937</v>
+        <v>13.05445126011009</v>
       </c>
       <c r="L12">
-        <v>10.6276735066459</v>
+        <v>6.522874691511641</v>
       </c>
       <c r="M12">
-        <v>15.54179996203038</v>
+        <v>11.108367821646</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>31.70209996648972</v>
+        <v>20.85330820643073</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.9408044290532</v>
+        <v>16.40370803622447</v>
       </c>
       <c r="C13">
-        <v>9.335703516259059</v>
+        <v>7.693352984289143</v>
       </c>
       <c r="D13">
-        <v>7.680659296254419</v>
+        <v>5.480137093638226</v>
       </c>
       <c r="E13">
-        <v>13.31257741756669</v>
+        <v>7.963558903466453</v>
       </c>
       <c r="F13">
-        <v>40.93351488894659</v>
+        <v>28.18295912936345</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.67135857511306</v>
+        <v>6.205988636887881</v>
       </c>
       <c r="K13">
-        <v>10.95486150750088</v>
+        <v>13.02254038195588</v>
       </c>
       <c r="L13">
-        <v>10.6277313593523</v>
+        <v>6.518056730618974</v>
       </c>
       <c r="M13">
-        <v>15.53974054803966</v>
+        <v>11.09053537020429</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>31.70585180515881</v>
+        <v>20.85196367328805</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.90375842401257</v>
+        <v>16.25647336439077</v>
       </c>
       <c r="C14">
-        <v>9.33341171792719</v>
+        <v>7.686594345077996</v>
       </c>
       <c r="D14">
-        <v>7.677428946600402</v>
+        <v>5.451872637920733</v>
       </c>
       <c r="E14">
-        <v>13.31601963403896</v>
+        <v>7.962509396910682</v>
       </c>
       <c r="F14">
-        <v>40.94439438871606</v>
+        <v>28.14403178870381</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.67461454878855</v>
+        <v>6.215895030543146</v>
       </c>
       <c r="K14">
-        <v>10.92715357042487</v>
+        <v>12.91797353792691</v>
       </c>
       <c r="L14">
-        <v>10.62794611334295</v>
+        <v>6.50237823250943</v>
       </c>
       <c r="M14">
-        <v>15.53306919653315</v>
+        <v>11.03228632430564</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>31.71821985112678</v>
+        <v>20.84802833606908</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.88106466467547</v>
+        <v>16.16571188459897</v>
       </c>
       <c r="C15">
-        <v>9.332009307701318</v>
+        <v>7.682464801776061</v>
       </c>
       <c r="D15">
-        <v>7.675467084426518</v>
+        <v>5.434525298724703</v>
       </c>
       <c r="E15">
-        <v>13.31815341383847</v>
+        <v>7.961927435815659</v>
       </c>
       <c r="F15">
-        <v>40.9512016215491</v>
+        <v>28.1206320229199</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.67662091969818</v>
+        <v>6.221980899602123</v>
       </c>
       <c r="K15">
-        <v>10.91017454924665</v>
+        <v>12.8535399754722</v>
       </c>
       <c r="L15">
-        <v>10.62809771503527</v>
+        <v>6.492800924725625</v>
       </c>
       <c r="M15">
-        <v>15.52901735109185</v>
+        <v>10.99653622809841</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>31.72589742831169</v>
+        <v>20.84596081857103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.75101902675297</v>
+        <v>15.63672723832939</v>
       </c>
       <c r="C16">
-        <v>9.323994323059424</v>
+        <v>7.658956093158038</v>
       </c>
       <c r="D16">
-        <v>7.664484047383854</v>
+        <v>5.3346071879264</v>
       </c>
       <c r="E16">
-        <v>13.33076975967149</v>
+        <v>7.959517004592538</v>
       </c>
       <c r="F16">
-        <v>40.99240591250416</v>
+        <v>27.99326124099962</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.68830273459674</v>
+        <v>6.257134715840405</v>
       </c>
       <c r="K16">
-        <v>10.81279050682971</v>
+        <v>12.4784115685641</v>
       </c>
       <c r="L16">
-        <v>10.62927455842428</v>
+        <v>6.438325888562188</v>
       </c>
       <c r="M16">
-        <v>15.50633110047472</v>
+        <v>10.79062373659914</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>31.77145421659307</v>
+        <v>20.83927139436918</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67128021428525</v>
+        <v>15.30547395843416</v>
       </c>
       <c r="C17">
-        <v>9.319097230759381</v>
+        <v>7.644671288983158</v>
       </c>
       <c r="D17">
-        <v>7.65797987677285</v>
+        <v>5.272882707263825</v>
       </c>
       <c r="E17">
-        <v>13.33885657781258</v>
+        <v>7.958853826408467</v>
       </c>
       <c r="F17">
-        <v>41.01964129121947</v>
+        <v>27.92102771408253</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.69563375890364</v>
+        <v>6.278952446382373</v>
       </c>
       <c r="K17">
-        <v>10.75300071237337</v>
+        <v>12.24302130373312</v>
       </c>
       <c r="L17">
-        <v>10.63027209027342</v>
+        <v>6.405279190544004</v>
       </c>
       <c r="M17">
-        <v>15.49289357644822</v>
+        <v>10.66342145271458</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>31.80079301923265</v>
+        <v>20.83966460243197</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.62544609525636</v>
+        <v>15.12692621473958</v>
       </c>
       <c r="C18">
-        <v>9.316288046841853</v>
+        <v>7.636504568813931</v>
       </c>
       <c r="D18">
-        <v>7.65432543308037</v>
+        <v>5.23723346661795</v>
       </c>
       <c r="E18">
-        <v>13.34363562433618</v>
+        <v>7.958768372697726</v>
       </c>
       <c r="F18">
-        <v>41.03602561859264</v>
+        <v>27.88161246380464</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.69991099106649</v>
+        <v>6.291595519051087</v>
       </c>
       <c r="K18">
-        <v>10.71860451304398</v>
+        <v>12.10569465868264</v>
       </c>
       <c r="L18">
-        <v>10.63094738110644</v>
+        <v>6.3864112291751</v>
       </c>
       <c r="M18">
-        <v>15.48534251140236</v>
+        <v>10.58995449968545</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>31.81817895069628</v>
+        <v>20.84150158827113</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.60993393993628</v>
+        <v>15.06607625068645</v>
       </c>
       <c r="C19">
-        <v>9.315338211687889</v>
+        <v>7.633747887218703</v>
       </c>
       <c r="D19">
-        <v>7.653103041728404</v>
+        <v>5.225139027363177</v>
       </c>
       <c r="E19">
-        <v>13.34527567943395</v>
+        <v>7.958789925366824</v>
       </c>
       <c r="F19">
-        <v>41.04169657647896</v>
+        <v>27.86862956811217</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.70136961221685</v>
+        <v>6.295892544780162</v>
       </c>
       <c r="K19">
-        <v>10.70695844252199</v>
+        <v>12.05886542999279</v>
       </c>
       <c r="L19">
-        <v>10.63119348662508</v>
+        <v>6.380047121194831</v>
       </c>
       <c r="M19">
-        <v>15.48281653831866</v>
+        <v>10.56502974057162</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.8241532755509</v>
+        <v>20.84239628727375</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.67976582634845</v>
+        <v>15.33995387341229</v>
       </c>
       <c r="C20">
-        <v>9.319617763545553</v>
+        <v>7.646186787267169</v>
       </c>
       <c r="D20">
-        <v>7.658663312465393</v>
+        <v>5.279468832492074</v>
       </c>
       <c r="E20">
-        <v>13.33798250711656</v>
+        <v>7.958893705669285</v>
       </c>
       <c r="F20">
-        <v>41.01666759188191</v>
+        <v>27.9284956182713</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.69484708769966</v>
+        <v>6.276620206665005</v>
       </c>
       <c r="K20">
-        <v>10.75936637748417</v>
+        <v>12.26827935399169</v>
       </c>
       <c r="L20">
-        <v>10.63015539849046</v>
+        <v>6.408782683504977</v>
       </c>
       <c r="M20">
-        <v>15.49430565186449</v>
+        <v>10.67699424680842</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>31.797616958807</v>
+        <v>20.83945509375377</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.91464023381202</v>
+        <v>16.29983969879079</v>
       </c>
       <c r="C21">
-        <v>9.334084587687832</v>
+        <v>7.688577365700663</v>
       </c>
       <c r="D21">
-        <v>7.678374277602675</v>
+        <v>5.460181843758412</v>
       </c>
       <c r="E21">
-        <v>13.3150032952958</v>
+        <v>7.962804951541451</v>
       </c>
       <c r="F21">
-        <v>40.94116896692363</v>
+        <v>28.15537288237383</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.67365569176208</v>
+        <v>6.212981557292499</v>
       </c>
       <c r="K21">
-        <v>10.93529360397119</v>
+        <v>12.94876721878696</v>
       </c>
       <c r="L21">
-        <v>10.6278788562037</v>
+        <v>6.506977938086214</v>
       </c>
       <c r="M21">
-        <v>15.5350215428921</v>
+        <v>11.04941035142197</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>31.71456584171213</v>
+        <v>20.84911252455335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.06809401538729</v>
+        <v>16.90135630493953</v>
       </c>
       <c r="C22">
-        <v>9.343601913521157</v>
+        <v>7.716741581571926</v>
       </c>
       <c r="D22">
-        <v>7.692011402587771</v>
+        <v>5.57676917070602</v>
       </c>
       <c r="E22">
-        <v>13.30111888647879</v>
+        <v>7.968076509346536</v>
       </c>
       <c r="F22">
-        <v>40.89823602388621</v>
+        <v>28.32343633760982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.66034301097964</v>
+        <v>6.172195958016044</v>
       </c>
       <c r="K22">
-        <v>11.04998317785378</v>
+        <v>13.37633830014886</v>
       </c>
       <c r="L22">
-        <v>10.62728949857708</v>
+        <v>6.572335853955398</v>
       </c>
       <c r="M22">
-        <v>15.56318228160475</v>
+        <v>11.28968708671763</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>31.66484249653335</v>
+        <v>20.87066264931487</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.98621241412558</v>
+        <v>16.58266110790792</v>
       </c>
       <c r="C23">
-        <v>9.338516835961446</v>
+        <v>7.70166679875451</v>
       </c>
       <c r="D23">
-        <v>7.684664743372515</v>
+        <v>5.514692785003144</v>
       </c>
       <c r="E23">
-        <v>13.30842568243904</v>
+        <v>7.965010627593185</v>
       </c>
       <c r="F23">
-        <v>40.92056346205275</v>
+        <v>28.23188897116678</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.66739922257515</v>
+        <v>6.193891842207806</v>
       </c>
       <c r="K23">
-        <v>10.98880858575228</v>
+        <v>13.14970156182687</v>
       </c>
       <c r="L23">
-        <v>10.62752211930922</v>
+        <v>6.537347924237928</v>
       </c>
       <c r="M23">
-        <v>15.54801213560894</v>
+        <v>11.16175082004987</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>31.69096374999047</v>
+        <v>20.85772281484869</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.67592945024588</v>
+        <v>15.32382524767166</v>
       </c>
       <c r="C24">
-        <v>9.319382411255281</v>
+        <v>7.645501488019897</v>
       </c>
       <c r="D24">
-        <v>7.65835406660028</v>
+        <v>5.276491750597025</v>
       </c>
       <c r="E24">
-        <v>13.33837727004677</v>
+        <v>7.958874755730476</v>
       </c>
       <c r="F24">
-        <v>41.01800973888079</v>
+        <v>27.9251128070064</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.69520254694824</v>
+        <v>6.27767430113495</v>
       </c>
       <c r="K24">
-        <v>10.7564885270102</v>
+        <v>12.25686641238877</v>
       </c>
       <c r="L24">
-        <v>10.63020783770178</v>
+        <v>6.407198345530746</v>
       </c>
       <c r="M24">
-        <v>15.49366670913717</v>
+        <v>10.67085903041923</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>31.79905124015719</v>
+        <v>20.83954480480722</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.3425600849049</v>
+        <v>13.97917895449293</v>
       </c>
       <c r="C25">
-        <v>9.299031775170262</v>
+        <v>7.586803041608137</v>
       </c>
       <c r="D25">
-        <v>7.633292361058304</v>
+        <v>5.014094631615479</v>
       </c>
       <c r="E25">
-        <v>13.37557005674143</v>
+        <v>7.963526968383143</v>
       </c>
       <c r="F25">
-        <v>41.15061463655178</v>
+        <v>27.67518501154838</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.72751229928257</v>
+        <v>6.371661967208232</v>
       </c>
       <c r="K25">
-        <v>10.50577972462741</v>
+        <v>11.21978048873115</v>
       </c>
       <c r="L25">
-        <v>10.63698974796046</v>
+        <v>6.27218589588449</v>
       </c>
       <c r="M25">
-        <v>15.44186281151328</v>
+        <v>10.13006714968596</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.93517540902369</v>
+        <v>20.88101613898816</v>
       </c>
     </row>
   </sheetData>
